--- a/OldMutual/Output/SmartReportMatchStatus.xlsx
+++ b/OldMutual/Output/SmartReportMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{EACFE157-DF99-450C-9DDB-69011B877985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{0B39B89A-A22D-44A6-BCB9-C697F967013B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{BBDF4DF0-402C-424D-8595-ABF1024CDA4D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3043,7 +3043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.854640509257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599468518521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="OML To Deal_Smart Ran"/>
   </cacheSource>
@@ -3162,7 +3162,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F747D36-EC5D-4F7C-B42E-256A4917BFF4}" name="PivotTable5" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F747D36-EC5D-4F7C-B42E-256A4917BFF4}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="W1:W2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>

--- a/OldMutual/Output/SmartReportMatchStatus.xlsx
+++ b/OldMutual/Output/SmartReportMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{0B39B89A-A22D-44A6-BCB9-C697F967013B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{4D65CA93-5443-4CE2-9659-9ACEA01D68D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{BBDF4DF0-402C-424D-8595-ABF1024CDA4D}"/>
   </bookViews>
@@ -3043,7 +3043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599468518521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.62007824074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="OML To Deal_Smart Ran"/>
   </cacheSource>

--- a/OldMutual/Output/SmartReportMatchStatus.xlsx
+++ b/OldMutual/Output/SmartReportMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{4D65CA93-5443-4CE2-9659-9ACEA01D68D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{39F3906C-83C5-4D3C-94AE-0A2BD40B6A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{BBDF4DF0-402C-424D-8595-ABF1024CDA4D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3043,7 +3043,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.62007824074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.630651504631" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{03059E71-AEF1-4C99-8067-06E35E02C6EE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="OML To Deal_Smart Ran"/>
   </cacheSource>
@@ -3162,7 +3162,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F747D36-EC5D-4F7C-B42E-256A4917BFF4}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F747D36-EC5D-4F7C-B42E-256A4917BFF4}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="W1:W2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
